--- a/500all/speech_level/speeches_CHRG-114hhrg21378.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21378.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>committee_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>400206</t>
-  </si>
-  <si>
-    <t>Sam Johnson</t>
   </si>
 </sst>
 </file>
@@ -451,9 +448,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" t="s"/>
       <c r="H2" t="s"/>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21378.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21378.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -50,6 +53,12 @@
   </si>
   <si>
     <t>400206</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Sam</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,28 +437,36 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/500all/speech_level/speeches_CHRG-114hhrg21378.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21378.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,10 +58,487 @@
     <t>400206</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
     <t>Sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Good afternoon, and welcome.    Today the Social Security Board of Trustees finally released this year's annual report on the financial health of Social Security.    Now, we all know Social Security is in trouble, and the first step to solving a problem is to know what you are up against. So today we are going to hear from Social Security's Chief Actuary about the findings in this year's report, which was just released this morning.    We all know how important Social Security is to the millions of Americans receiving benefits, and given the challenges facing Social Security, you would think these annual reports would be released on time. Unfortunately, that has not been the case.    As you can see on the screens, for each year of President Obama's Administration, the Trustees Report has never been released on time. On average, they have been delivered around 75 days late, and this one is 82 days late. And that is not the latest it has ever been released. Let's be thankful that this year's report is not as late as the 2010 report was, which was 126 days late.    The Trustees Report is not a new thing. In fact, it was created as part of the 1939 amendments. Its original due date was the first day of each regular session of the Congress. In the early 1950s, the Congress extended the date to March 1st. Then, in the mid-1960s, the Congress shifted the deadline forward by one more month to give the trustees more time.    The current April 1 deadline has been in place since 1968. It is not a suggested deadline. It is a mandatory deadline. The American people have a right to expect that the deadline will be met, period.    Pat Tiberi, whose Subcommittee oversees Medicare, and I wrote to the Treasury Secretary, Secretary Lew, twice this year asking why this year's report was late. However, the Secretary did not think it was necessary to personally respond to our letters, and that is unacceptable and the American people deserve better.    It is clear this Administration is not serious when it comes to Social Security. This year's budget didn't even include the President's usual empty words about fixing Social Security.    Earlier this month, the President spoke about his plan for Social Security, but he forgot one important thing: The first rule when you are in a hole is to stop digging. During his recent speech in Indiana, the President suggested we should increase Social Security benefits and just ask the wealthiest Americans to pay a little more.    Sounds easy, doesn't it? Well, even taxing every dollar of earnings wouldn't make Social Security solvent, let alone give the program enough money to pay higher benefits. President Obama's tax hike rhetoric doesn't add up and neither does his math.    Make no mistake, we should look to improve benefits for lower-income individuals who work their entire lives paying into Social Security and don't receive that much back in return. But we have to talk about this in the context of real Social Security reform, reform that gets the program on a sound and sustainable financial footing. That means making sure that it is there for our children and our grandchildren, just like it has been there for seniors and individuals with disabilities today.    Look, I have said this before and I will say it again, the longer we wait, the tougher it will be to get Social Security fixed. So the sooner we act, the better.    I thank our witness for being here today.    Thank you so much for giving the latest update on Social Security's finances. I now recognize Mr. Becerra for his opening statement.</t>
+  </si>
+  <si>
+    <t>400021</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
+    <t>Becerra</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BECERRA. Thank you, Mr. Chairman.    Today, Social Security is strong and it continues to be critically important to the American public. In fact, the need to expand and improve Social Security is growing, because fewer and fewer workers in America today have traditional pensions to count on and it is increasingly difficult for the majority of Americans to save adequately for retirement.    In more than 80 years, Social Security, despite the worst recessions we have seen in this country since the Great Depression--and certainly the one in 2008 was the worst--but in those 80 years, Social Security has never failed to pay benefits in full and on time.    So let's be clear, Social Security is not now and never will be broke. Social Security currently has $2.8 trillion--not million, not billion--$2.8 trillion dollars surplus in its trust fund. That exists because of working Americans making contributions through their paychecks to the trust fund.    Even without the trust fund, Social Security's incoming payroll contributions from American workers would still cover about three-quarters of the benefits Americans have earned and expect to receive. But no one wants to get three-quarters of what they expect, and that shortfall coming in the next decades is a challenge, one we need to address.    But let's be wary of scare tactics that make it seem like Social Security is broken or broke and that our only choice is therefore to cut America's benefits. Remember, last year we heard the claims that Social Security would have to cut benefits for disabled workers by 20 percent. But many of us on the Democratic side fought hard to prevent that kind of a cut and showed that Social Security had the funds to pay the benefits those Americans who earned those benefits were entitled to.    So remember, Social Security has never added one dime to the debt or the deficit. And you can see from this chart, in the 80 years of Social Security, more than 80 years, how much we have collected from American workers and how much we have paid out to those who are beneficiaries, and you can see how we make up that $2.8 trillion surplus.    So let's put the Social Security challenge in perspective. Some people will say you can't count the $2.8 trillion Social Security has in surplus and you can't count the money that everyday American workers are putting into Social Security through their payroll contributions, that it is all funny money.    Well, here is the truth: Social Security is one of the only programs in our Federal Government that pays for itself. And let's take a look at one very important program of the Federal Government, the defense budget and all our military activities to protect the American people. We would all agree that that is something that we must do.    This year our Federal deficit, in part, is due to our military spending. About $114 billion of our Federal budget right now is added to the national deficits and debt. And since the last time we had a balanced budget in fiscal year 2000, we have added about $2.3 trillion in deficit spending for the military to our debt.    By contrast, in those same 15, 16 years, what has Social Security done? Well, in that same time, Social Security's surplus went from $1 trillion in fiscal year 2000 to the $2.8 trillion of today. So not only did Social Security not add one single penny to the national deficits over those 16 years, not only did it not add a penny to the national debt over those 16 years, but it actually increased the size of its surplus in the trust fund by $1.8 trillion.    That is why Social Security is on such secure footing, because American workers contribute to it separately and it is there for them for their benefits into the future.    Moving forward into the future, if someone wants to play the crystal ball game of forecasting what we will spend on Social Security or the military or anything else, then Social Security, with its independent source of funding from Americans' paycheck contributions, is in far better shape than any other segment of the Federal Government. We should not forget that. Social Security has an 80-year track record, as I said, of paying benefits on time and in full.    Its future we must work on to make sure it is as solid as always. And I will put my hat and my bet on Social Security over any other program, private or public, any time of the day.    So, Mr. Chairman, we know that Social Security will face challenges in the future, but let's not manufacture crises. Let's make sure we move forward, and let's take care of the real, immediate crisis that Social Security does face, and that is a funding shortfall that has seen its budget cut by 10 percent since 2010 while it has seen a 15 million increase in the number of beneficiaries from the 45 million it had 6 years ago. That is the real problem, is underfunding the ability of Social Security to provide good service to the American public.    So, Mr. Chairman, I am glad that Mr. Goss is here. I look forward to his testimony. And let's make sure that we are all working to make Social Security sound and secure for the next generations of Americans who can rely on it as well.    I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Thank you.    As is customary, any Member is welcome to submit a statement for the hearing record.    And before we move to our hearing testimony today, I want to remind our witness to please limit your statement to 5 minutes. However, without objection, all the written testimony will be made a part of the hearing record.    We have one witness today. Seated at the table is Stephen Goss, Chief Actuary, Social Security Administration.    Please proceed.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GOSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Thank you very much, Chairman Johnson, Mr. Becerra, Members of the Committee, for the opportunity to come and talk to you about the 76th consecutive annual report from the Board of Trustees about the finances in this program.    The statements by the Chairman and Ranking Member have already done a great job talking about what this program is, the 60 million people that it is currently serving. One in 6 Americans is receiving a benefit from this program, 49 million of them from the Old-Age and Survivors Insurance, 11 million of them from the Disability Insurance. In 2015, the program paid out $866 billion in benefits to Americans, $743 billion of that to the OASI side and $143 billion on the DI side.    The asset reserves, as mentioned, are at $2.81 trillion now for the combined OASI and DI trust funds. That is an increase of $23 billion over what they had been at the beginning of the year 2015. Those asset reserves now stand at fully three times the annual cost of the program, which is actually above what has oftentimes been thought to be sort of a desirable contingency reserve level of at least 1 year's cost. So Social Security in the near term is in good shape at the moment.    Based on intermediate assumptions, let me share with you, in the Trustees Report--and I apologize that you have not had more time before this hearing to get to look at this carefully--but where we had a 2.68 percent of payroll, 75-year long-term deficit in last year's Trustees Report, we have a 2.66 percent of payroll deficit in this year's Trustees Report. That is a little bit better. It is a little bit better than it sounds, because just for the passage of time, change in the valuation year to 1 year later, we would have expected the 2.68 to rise to 2.74 percent of payroll deficit, but, in fact, it declined for a number of reasons that we can go into.    The Bipartisan Budget Act that you all participated in making happen, all who pay attention to Social Security are much appreciative of that, was a big reason why the Disability Insurance program has been extended. It has been extended by 6 years, we estimate, as a result of the enactment of that Act. And, in fact, you see for this report we estimate that the reserve depletion date will be extended an additional year on the basis of what has happened in the economy and other aspects of Social Security.    In fact, on the Disability Insurance side, the number of applications for disability has continued to decline, as it has since 2010. It has declined more than we had expected, and that is one of the components that has contributed toward our having 1 extra year beyond 2022 that we reported to Speaker Boehner back in November, and so that is a very, very positive development.    And I would also want to report to you all, this is not included in the Trustees Report obviously, but even more recent developments are that our applications for Social Security Disability benefits have continued to be lower than we had expected. So we hope a year from now to have more good news for you.    Beginning in 2020, however, we are expecting the projected OASDI annual cost to exceed its total current income, which will mean at that point in time that our nominal dollar, our total dollar amount of asset reserves in the trust fund will start to decline. We are projecting on a combined basis the Old-Age Survivors Insurance and Disability Insurance programs will deplete the reserves in 2034. That is the same year that was estimated from last year. So the changes are not dramatic, the improvement is not dramatic, but it is always good to have some improvement.    Over the last 20 years, that reserve depletion date for the combined OASI and DI funds has ranged between 2029 and 2042. We are at 2034 now. And that really speaks to the variability that can occur in the economy and the implications for what the trust funds are and how long they will sustain the ability to pay the full scheduled benefits on a timely basis in the absence of action by you all and the President in changing the law.    In 2034, as I think Mr. Becerra already indicated, we are projecting now that if the reserves were allowed to deplete, we would still have 79 cents of revenue coming in for every $1 of scheduled benefits, but that that will decline to about 74 percent of scheduled benefits by 2090. So action clearly is going to be needed.    As described in the actuarial opinion, and as you all have stated and well understand, should we reach a point of reserve depletion without congressional action we simply will not be able to pay the full scheduled benefits on a timely basis. We have never reached that point before. We have--maybe I shouldn't say this--we have absolute confidence that you all will not allow that to happen.    After reserve depletion, the continuing income for disability, if we were to reach reserve depletion in 2023, we would still have 89 cents for every dollar coming in of continuing income in 2023 for the Disability Insurance program, and that would change to 82 cents for every dollar of scheduled benefits by the time we get out to 2090 for DI.    One other thing that I really want to say is that all of the changes that we have seen happen over the last 20 years for Disability Insurance costs rising and in the next 20 years for retirement cost under Social Security rising is really a matter of the changing age distribution of our population, determined by the changing birth rates that we had after the baby boom generation and the lower birth rates that we expect in the future.    We do need some changes in the future upcoming. We are looking forward to the proposals that you all will be developing and we will be working with you in scoring to be able to make the changes necessary to keep Social Security in good financial shape for the indefinite future.    Thank you very much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Thank you for your testimony.    We will now turn to questions. And as is customary for each round of questions, I will limit my time to 5 minutes and ask my colleagues to also limit their time as well.    Mr. Goss, welcome. This year's report happens to be 82 days late. Can you tell us what caused the delay this year?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, first of all, I would give you my apologies and the apologies of my office on not having gotten this through earlier. As you all know, whether we have four trustees, as we had involved in this year's report, because we did not have Public Trustees engaged, or six trustees, there is a lot to be done in putting together not only the Social Security report, but also the Medicare report. Since 1965, we have had both reports to deal with, and the trustees have deemed to always have both reports come out at the same time.    There is a lot of complexity in both of these laws, lots of changes, and it just takes time for the trustees and their staffs to get together and make the decisions, which sometimes are difficult. When people get together and they have slightly different views on things, they have to work it out, they have to develop their consensus, and it takes time.    The final point that oftentimes occurs and can delay the timing of the Trustees Report is to find the time when all four or six trustees can all get in the same room at the same time. That is not always easy. And I believe earlier today we had all four of our trustees, all ex officio members were there, and it is not always easy to get that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Were they going in the same direction?    I will tell you, I had to send two letters to Secretary Lew before a member of his staff could be bothered to respond to my asking about the delay with the Trustees Report. I ask unanimous consent to place these three letters into the record.    Hearing none.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. In response, the Treasury staff noted that this year's Trustees Report process was without the benefit of Public Trustees.    Mr. Goss, briefly, what is a Public Trustee and how do they differ from other trustees?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Of course, our four ex officio trustees are those by nature of the job they have within the current Administration. The two Public Trustees who are put forth by the President, but with advice and consent from Members of Congress, are supposed to be of two different parties representing different views, and they do bring a broader perspective to the trustees than might otherwise be the case.    So it is a positive thing to have them there. The law requires that. And when the President does propose Public Trustees and they get confirmed by the Senate, then we have them in place. We simply were not in that position this year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Well, some of our Democrats have argued that one of the most recent Public Trustees, Dr. Blahous, somehow managed to take over the process and change assumptions in the report to overstate Social Security's trouble. Is that true?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, I would confess, I have known Chuck Blahous for a long time and I respect him very much, but in the time that I have spent working with trustees over the past years, I have never seen anybody capable of overwhelming five others. And when the trustees work together, they work toward consensus, and they all have signed the reports each year. So what you see, I think, we really have to take, and I would suggest, it represents the consensus of all the members of the board.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Okay. Well, thank you for the answer. And in the time remaining, I would like to shift gears and ask you about Social Security and taxes.    Earnings up to a certain amount, called the taxable maximum, are subject to Social Security payroll taxes. This year, what is that amount?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. That is $118,500.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Some have suggested we should raise that taxable maximum to cover 90 percent of earnings. If that were the case, what would this year's taxable maximum be?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. It would be a little bit more than double that level in order to get it back to the same share of all earnings being taxed as we had back in----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Would that be enough to make Social Security solvent, though, yes or no?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. No, in and of itself it would not for the long run.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. And if every dollar of earnings were subject to the payroll tax, would it be enough to make Social Security solvent, yes or no?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. In and of itself, it would not be sufficient. It would go a long way, but would not be sufficient for the long run.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. So we can't tax our way to solvency.    Well, thank you. I appreciate your testimony.    And I will recognize my colleague here for questioning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BECERRA. Thank you, Mr. Chairman.    Mr. Goss, thanks for your testimony.    Let me have you refer to the chart that is on the screen just to be sure we do the simple math on Social Security. This chart covers the 80-plus years that Social Security has been in existence.    On the left is the amount of money that American workers have paid into the system. As you can see, the gray bar represents the contributions, people's taxpayer contributions, their taxes paid to the payroll tax. The dark blue bar above it is the interest that has been earned on all the money Americans have put into the trust fund, right?    The bar on the right, the red part of it, reflects what we have paid out, the Social Security Administration has paid out to millions of Americans who have received their benefits. As you mentioned, 60 million Americans today are receiving Social Security benefits. That is how much we paid out in those same 80-plus years.    You can't really see it, but there is a little bar, a dark bar right on top of the red bar. That represents the administrative costs, the overhead for Social Security to do its business, less than 1 percent.    Mr. Goss, you have been doing this business for a long time. Are you aware of any business in America that does insurance that operates at an overhead of less than 1 percent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Unfortunately, no. I think we are unique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BECERRA. Yeah. And whether it is your retirement plan or whether it is your savings accounts, I know of no business that can tell me that of the money I put in, that company is only going to take less than 1 percent to operate the business and charge me for their overhead.    And as we can see, there is a surplus there, $2.8 trillion in what is being collected through American workers contributions and what we have had to pay out. I just said that over its 80-plus years, Social Security has never run a deficit, has never contributed a penny to the Nation's debt. Is that an accurate statement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. I would agree with that. Certainly, in the sense that Social Security, it actually, in effect, absorbs debt from the rest of the government. Social Security actually makes loans to the Treasury. When we look at the roughly $19 trillion of total Federal debt, that is comprised in part of the debt the Treasury owes to Social Security.    So I think my view is that it would be accurate to say Social Security does not contribute toward the debt. Actually, it helps finance some of the debt, which otherwise would have to be borrowed from the public.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BECERRA. So now, let's look forward. Let's not try to deceive anyone. That surplus that we have, the $2.8 trillion, that is a lot of money. But over the years, because there are so many Americans, 60 million-plus, and that is going to grow with the baby boomers retiring, are going to be calling on that money that is in reserve. And by 2034, if the estimates are accurate, we will have exhausted all of the reserve. That means that the only money coming into Social Security will be the money American workers are paying in through their payroll taxes, and that would be enough to cover about 79 cents, I think you said, of what we currently provide in a dollar's worth of benefits.    No American wants to get 79 cents on what Americans today are getting at a dollar apace. And so clearly we want to do something. And so we have the next 20 years or so to resolve that on a bipartisan basis.    But let me ask you to compare, because you work with Social Security. American taxpayers are paying into the Social Security system through their payroll taxes, contributing to the trust fund. The rest of the Federal budget doesn't operate that way, or most of it doesn't operate that way.    And I mentioned, for example, that we have a deficit right now in our Federal operating budget. About $114 billion of that operating deficit, or that deficit that comes from our operating budget, is attributable to what we are spending today, this year, on the military. And if you take a look at what we spent in the last 15 years, as I mentioned, since the last time we had a balanced budget in the Federal Government, we have added about $2.3 trillion in deficit to that national debt as a result of what we spent on the military.    Now, I don't think anyone here is going to say, oh, let's not spend that money on our troops. But we have to recognize, we are deficit spending. In that same time, we have never added to the deficits of the country through Social Security.    And so as we start to talk about long-term projections about where we are going, isn't it important to know if you have a source of funding for the program that you consider vital, whether it is national defense or Social Security? I pose that as a question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. I would absolutely agree. And, of course, there are budget scoring conventions, and I addressed that in the actuarial opinion of the Trustees Report, and different ways of looking at things.    But as far as Social Security is concerned, the OASI and DI trust funds and one of the Hospital Insurance trust funds of Medicare really do stand different from other programs. As Mr. Becerra indicated, they are really not allowed to borrow in any meaningful sense. So we are always in a position of having a positive accumulated balance from the start of time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BECERRA. So let me ask you one last question. In the last 6 years has your operation been impacted by the cuts to the Social Security budget, the operating budget for Social Security? Have you been impacted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, Social Security as a whole certainly has. And certainly in our office we have gone through the hiring freezes and restrictions on our ability to hire the number of people we would like to have to be able to serve you in every way that we possibly can. So certainly there are issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BECERRA. Thank you very much.    I yield back, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Thank you. The time of the gentleman has expired.    Mr. Renacci, you are recognized.</t>
+  </si>
+  <si>
+    <t>412462</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Renacci</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RENACCI. Thank you, Mr. Chairman, for holding this important hearing to discuss the 2016 Social Security Trustee Report and discuss the challenges facing this program that plays such a vital role in the retirement income of so many Americans.    Like many of my colleagues, I often hear from my constituents in the district talking about the need to preserve Social Security and ensure that it remains a reliable source of income for retirees. Also, as a father of three, I believe that we have a responsibility to leave our children and grandchildren with a country that is financially stronger than the country that we inherited.    Unfortunately, though, Washington too often chooses to kick the can down the road, call things surpluses when they are truly liabilities, and fails to address the long-term challenges that face our country.    As you can see from the slide that is shown on the screen, over the next 75 years Social Security's unfunded liability is equal to $11.4 trillion. That is a $700 billion increase from last year's report. This dollar amount represents the present value of the shortfall and the amount of revenue that the trust funds will collect compared to what the trust funds owe to Social Security beneficiaries. That is not a surplus. That is an unfunded liability.    Unfortunately, the outlook continues to get worse as Washington delays addressing the problem. In fact, since 2009, the 75-year shortfall has more than doubled, from $5.3 trillion to currently $11.4 trillion today. This is a serious problem that will require difficult decisions to be made. I believe that we must first start by fully understanding the financial challenges that we face not only in Social Security, but also in all unfunded liabilities of the United States.    In the next few days, a bipartisan group that I belong to will be introducing legislation to bring further awareness to both lawmakers and the American people of the unfunded obligations that our country owes on all of our social insurance programs. Our Nation's finances are one of the most important pieces of information that lawmakers should consider when setting the policy agenda for Congress, but too often, I believe that many here in Washington want to ignore those true issues.    This bipartisan legislation will simply require the Comptroller General of the United States to present the financial report of the United States in a joint session of the House and Senate. This will be held 45 days after issuance of an audited financial report to ensure that lawmakers receive the information in an accurate and timely manner. You see, we can't just look at Social Security, we have to look at everything, and I think that is important.    Mr. Goss, you heard a couple words. One of them was unfunded liability. Can you explain the definition of unfunded liability?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Thank you very much for the opportunity.    Actually, yes. The liabilities that you described, we actually refer to per the Federal Accounting Standards Advisory Board as unfunded obligations. And the distinction there really is important. A liability is where you have the legal, contractual basis for having to pay for something in the future.    In the case of Social Security benefits, there is an obligation to pay scheduled benefits in the future, but there is a limitation. We can only pay what we have money to pay. So those amounts of future benefits are really referred to as obligations.    And the unfunded portion of scheduled benefit future cost we refer to as unfunded obligations. Just one small thing on that. We did have $10.7 trillion, our estimated unfunded obligations through 75 years in the 2015 Trustees Report. Just by the simple passage of time, when we start with 2016 for the then next 75 years, that number would have gone up from $10.7 to $11.2 trillion.    That is mainly because we are calculating these unfunded obligations on a present value discounted basis. When we move from 2015 to 2016, it basically just increases the amount by the interest rate for 1 year. So we have gone to $11.2 trillion.    As it happens, changes that were made in the experience and the assumptions other than the interest rate assumption in this report would have taken it from $11.2 down to $10.5 trillion, which is actually lower than we had last year. The one assumption that caused it actually to be larger than last year, even with the valuation period change, was the change in the long-term ultimate real interest rate from 2.9 down to 2.7 percent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RENACCI. And I appreciate that. I do understand when you are doing calculations, you take assumptions, and I could take assumptions, you could take assumptions. But basically you show an unfunded obligation, as you call it, unfunded liability, is coming out of this report.    So we can't keep talking about Social Security's surpluses when the report issued today reflects a growing unfunded obligation. I will use your word. I believe that we have a responsibility to take the information that we have received today, work to find a way to appropriately address the sustainability of Social Security so our children and grandchildren do not need to make even more difficult choices in the future in order to maintain the program.    Mr. Chairman, I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Thank you.    Mr. Rice, you are recognized.</t>
+  </si>
+  <si>
+    <t>412572</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Thank you, Mr. Chairman.    Could you put the slide back up with the surplus that we have right now?    Everybody agrees that that surplus over time will expire unless we do something. Is that correct, sir?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Absolutely. These are our projections, no question. The surplus side is the accumulated amount of reserves we have. We are using them up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. And those reserves will be gone in what year?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Our current statement is that, assuming we look on a combined basis for the two trust funds, 2034.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. And that is not long-term solvency, is it? The year 2034 is 17 years away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Exactly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. And for many people who are currently already retired or certainly approaching retirement, it will have a dramatic effect on their retirement income, correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. If we do not act, if we do not make changes in the law to avert that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. How would you define long-term solvency? How long do you think we should be planning in advance for expiration of these reserves? What would be a comfortable margin for you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. That is a really good question. The nature of the way the program has been financed virtually from the beginning is a pay-as-you-go current-cost finance system, not an advance funded system.    Generally, what the trustees and past advisory councils over decades have said is have a contingency reserve throughout equal to at least 1 year's worth of----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. So you don't look for something that will be maintained for 75 years or 50 years, those aren't objectives for you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Oh, no, no, we really do, because of the three things that are required by the Congress for the trustees to report on, one of them being the actuarial status of the program. That has been interpreted most recently and generally as being a 75-year outlook to make sure that we are, indeed, solvent, that we are able to pay all scheduled benefits on time and in full throughout that 75-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. And right now you are saying we are solvent for the next 17 years, but we are not solvent after that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. We are not achieving full long-range solvency, absolutely----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Okay. And the problem is this demographic wave that we face, correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. When will that wave recede? It is not forever. It is not eternal. Do you have any projections on when that wave will recede?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. This is the perfect question. Thank you very much.    Many people have thought in the past that the baby boom generation being large will come in, they will cause us first disability increased costs, which they already have. Now that they are moving into retirement they will cause us increased costs in retirement. One might think that they will move through and go away and not be causing this increased cost. Actually, that is not the case. The reason we call it a baby boom generation is actually because the birth rates dropped after 1965 and have stayed at a lower level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. And they are continuing to drop. So you don't see this wave receding within the 75-year window?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. This wave is not receding. In fact, it is the reason why we are going to go from a total cost of 5 percent of GDP up to 6 percent of GDP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Okay. Thank you. I just have very limited time. I hate to rush you, and I am sorry.    What specific proposals has the Administration made to give solvency to the Social Security trust fund for the next 75 years?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. You know, the Administration, many Members of Congress have looked at various different options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Well, what specific proposals has the President made?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. We saw early on a proposal relative to the cost-of-living adjustment. We have seen proposals relative to immigration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. So that is chained-CPI you are talking about?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. That was early on in the Administration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. That was a specific proposal. What other specific proposals has he made?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. There have been proposals relative to comprehensive immigration reform. And I think those have been the primary ones that have been specifically put forward.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Comprehensive immigration. That doesn't really deal directly with Social Security, that deals with immigration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. So the only proposal he has made is to cut the cost-of-living adjustment? That is it?    Let me ask you this. How long would that make the Social Security trust funds solvent? How many years would that add? I know you have run those numbers. How many years would that add?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Oh, wow. We have that available up on our website. It would probably add 2 or 3 or 4 years to the year of reserve depletion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Two or 3 or 4. So instead of it being 16 years from now that the trust funds go broke, we are talking about 20. That is not exactly long-term solvency of the program, is it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. But we know that a full comprehensive fix is going to include lots of moving parts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. But we haven't seen any proposals from the Administration other than that one of cutting the cost-of-living adjustment? Is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, there have been other things like the claiming strategies, the aggressive claiming strategies that were addressed in one of the budgets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Okay. All right. What would you suggest, do you have any suggestions for us on how we fix this? I mean, it gets more expensive every year to fix it, correct? What suggestions do you have? I mean, you have limited options, because you have revenues decreasing and you have expenses increasing, and the expenses are going to pass the revenues by 2020, right?    So you really have limited options. You either have to increase revenue or you have to decrease expense, right? So what would you suggest? What specific ways would you suggest to fix Social Security, besides the chained-CPI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. What I would have to say, and the way we have to do our job is never really to answer that question, and I apologize for that, because what we are going to do is work for people on both sides of the aisle on all of the ideas that they have for making changes to either increase revenue or alter benefits or to----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Yeah, but you are an actuary. You can do this on the back of your hand.    Have you seen the AARP marketing about tell the Presidential candidates to take a stand? Have you seen that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. No, I haven't.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. It has been on TV a lot. It says tell the candidates to take a stand.    I want to know what specific proposals you would make for long-term solvency, solvency for 75 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. The only thing I could possibly say here--well, first of all, let me ask you this. Whenever we have dealt over the decades that I have been around with Members of Congress in private or in any other forum, we always ask, what precisely is your goal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Seventy-five-year solvency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Okay. So 75-year solvency is the goal we want to achieve. Then the question is, do we want to do that by lowering the scheduled benefits, staying within the 12.4 percent tax rate we have, or do we want to maintain the benefits and find more revenue?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Okay. See, my friend, here is what I think the American people are upset about: We keep telling them what the problem is, but we are not offering solutions for them. The Administration has offered one, and that is cut the COLA. I am asking you for solutions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Okay. Well, we fortunately have up on our web page, SSA.gov/oact, over 100 individual provisions actually not that we have come up with, but that Members of Congress have. And here is a little version of it. I can give you a couple copies if anybody would like, but it is right up on our web page. All of your staff already have access to this, well over 100 different provisions that affect Social Security in almost every way you can imagine. So what we really need now is for our collective judgment to get together and pick which of these different provisions we want.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. You guys are waist deep in the swamp. You know this better than anybody else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. The time of the gentleman has expired. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RICE. Thank you, sir. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Mr. Kelly, you are recognized.</t>
+  </si>
+  <si>
+    <t>412465</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Thank you, Chairman.    Mr. Goss, thanks for being here.    I want to go back to what the Chairman started with, a question about Mr. Blahous being on the Board. And the question then came up in the Huffington Post with Senator Schumer, Senator Warren, and Senator Whitehouse, something that says it was kind of curious--let's see how they said it, because it was kind of interesting, I thought, the way they stated it.    More or less that it was curious, there was curiously incorporated a number of assumptions playing up the potential insolvency of the program, and it had to do with Mr. Blahous.    You would say there is nothing he has done in that time period that would make you think that somehow this is politically motivated and that him being reappointed, even though the President is the one that nominated him, that it causes a problem, is it? Are you in agreement with that, that Mr. Blahous is not a problem, you haven't seen anything that he has done that is curious that could have influenced the outcomes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, I have been fortunate enough to work with the trustees all the way back to our very first two Public Trustees, Mary Falvey Fuller and Suzanne Denbo Jaffe, and it has really been a pleasure working with all of them. We understand that they come from different perspectives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. So he is not a problem, you don't look at him as a problem, you don't look at anything about his behavior or anything that he submits as being one of the trustees as curious?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. It is really not our place to evaluate whether someone is a positive or negative. What I would say is really what I take to be wonderful about this process, is that we get four, and generally six, different trustees involved with different views and that we coalesce----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Yeah, but you did say there is none of the trustees that has an overwhelming influence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. That is absolutely true. There are six. No one or two can control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Okay. So I am going to take that that as a body you don't see any problem.    And I would like to submit this for the record, if I could, Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. It comes out of the Huffington Post where the three Senators seem to be alarmed that somehow Mr. Blahous would be reappointed.    It doesn't seem to me that is an objective statement, but, again, we live in such a political environment that we have to do these things.    All of the things that we talked about--and I am just trying to think. I come from the private sector, and usually deadlines actually mean something, and there is a penalty if you don't reach the deadline. And this is established pretty much as that is the end line, that is the end time. Why so late?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, again, as mentioned earlier, my office is not in complete control, obviously, at developing these reports. We really are doing our work for the Board of Trustees. And the Board of Trustees, the four ex officio Members of the present Administration----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. But the whole purpose of the report, though, is that we can get an early indication of where we are going with this. And if you have to make a correction, I think with anything in life, the earlier you learn about something, the better to respond to it. You can change the direction of something, you can be aware of something and start to move in a different direction so it doesn't actually crash on you.    I am just trying to understand, and the Chairman spoke about this very clearly. But the number of days, I mean, 118 days, 112 days, 82 days, 60 days, 128 days, that seems to be way beyond the pale. But for somebody to say, listen, I know you missed the deadline, but you only missed it by a couple hours maybe or a couple days, but when we go into months of not being able to get that information, what would cause that to happen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Again, it is really--it is just the process of developing consensus----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. I get that. So it is a collaborative effort, I guess. I am just trying to understand how in the world you would fix something. We look at these things. They seem to be pretty self-evident to me.    And I look at this a little bit differently than some of the folks. I know where the actual revenue comes from. This comes out of people who are working. They are called wage taxes.    So all the revenue we collect comes out of working people. And we have seen a very low labor participation rate. So we have fewer people working, which means there are fewer funds going in. And I know we can play around with the numbers of what people are being paid and what the percentage would be, but it is capped at a certain level.    This program that we say is solvent, we don't have to worry about it, in over 80 years we have built some type of a surplus, it is a paper surplus. You don't really have a sense, at least I don't, that there is some stability in this program that we can go forward knowing this is going to be okay.    You are an actuary, and I know what actuaries do, and I don't care what line of business it is, you are calling out things that you see on the horizon, kind of sending out warning flags of, look, we are not going to be able to sustain this kind of program if we don't do something dramatic soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, there are really two aspects of this. One is the $2.8 trillion that we have now, it is required by law that any reserves that Social Security has be invested in interest-bearing securities backed by the full faith and credit of the United States Government, which is probably as secure as it gets anywhere. So I would suggest that $2.8 trillion, we should really say we can absolutely count on.    Is Social Security fully funded for the long term? It is not at this point. As mentioned before, we have currently an estimated $11.4 trillion of unfunded obligation, which, by the way, is actually a smaller percentage of GDP over the next 75 years than the value that we had in the last report. It is 0.89 percent of the GDP over the same 75-year period. Last year it was 0.91 percent of GDP over the 75-year period. Because, remember, $11.4 trillion sounds like an awful lot of money, but that is a 75-year shortfall. We have to look at it relative to the 75-year wherewithal to be able to cover that.    Do we have a shortfall? Yes. We do need to, one way or the other, come up with a way to either increase revenue on the order of a third or reduce the scheduled benefits on the order of one-fourth relative to what we have in current law by the time we get to 2034.    And, again, we are incredibly eager, myself and others from my office and at the Social Security Administration, to work with you all and your wonderful staffs on getting there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. And I appreciate it, because we are all in this for the same reason. But, really, long term, there are only two things you can look at. When you indulge in deficit spending for too long a period of time there is no bright light at the end of the tunnel other than maybe a freight train coming at you.    You are either able to decrease your spending or increase your revenue, one or the other, a combination of both would be great, but we have to get people back to work in an economy that is actually steamrolling along and not growing at below 1 percent and think that somehow things are going to get better if we just wait long enough.    Thanks so much for being here. But I do want to stay in touch with you, because this is a great concern for every single American.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. The gentleman's time has expired.    Mr. Smith, you are recognized.</t>
+  </si>
+  <si>
+    <t>412217</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SMITH. Thank you, Mr. Chairman.    And thank you, Mr. Goss, for your presence here today.    I think it is important to note that the longer we wait to make changes, the more difficult it will get.    But just to clarify, you just said that Social Security is not fully funded, and yet, we heard earlier and there was a graph up there that suggests that there is a surplus. I mean, that to me doesn't level. Would you characterize that as a surplus?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, it is an accumulated surplus that we have had up to this point. We do have $2.8 trillion available now. I hesitate to try an analogy, but, for instance, if we want to put our child through college for 4 years and we have enough money available right now to pay for the first year but not the latter 3, then we do have a nice piece of money here ready to cover 1 year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SMITH. Would you call that a surplus, given the suggestion of obligation for a 4-year degree?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, it is certainly a surplus in the sense that in that case and certainly in this case, where we have since the inception of the program, first taxes collected in 1937, we have accumulated more tax revenue collected than we have paid out to date.    And, again, looking at it from the point of view as a current-cost finance or a pay-as-you-go system, which it is, in that sense we have a surplus. Our real challenge is----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SMITH. But perhaps a better approach would be to suggest that it is not fully funded, as I heard from you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. To say it is not fully advance funded over the long term, there is no question about that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SMITH. All right. Okay.    Now, is there any way to quantify, perhaps, that delaying a decision, that the cost of delay is X? I mean, have you sorted that out? Is there a way to really quantify that?    Because when I talk to especially younger folks who are paying in to Social Security and when we tell them that those dollars won't be there long term if no changes are made, is there any way to quantify that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, what I would suggest is that we do know that looking on a combined OASI and DI trust fund basis, we can pay about 79 cents on the dollar, ultimately about 74 cents. So we are about 25 percent short on benefits, on the ability to pay benefits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SMITH. On the continuum of time, the longer we wait, I mean, it only gets worse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. But here is the question. If we were to enact a proposal today that would lower benefits by about a quarter or raise revenue by about a third as of 2034, that is exactly the same 2034 problem as if we enacted 5 years or 10 years from now.    The real difference in taking longer to consolidate on the decision that you all will make about how we ought to change things is that if we wait longer we will probably limit the options we have available, we will give people less advance warning, and we may be able to phase in changes less gradually.    The beauty of the 1983 Social Security amendments, which were the ones that raised our normal retirement age, didn't start to raise it until 17 years later. It is wonderful to give the American people that kind of advanced warning. So that is why I think everybody has been encouraging you all to give us legislation sooner rather than later.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SMITH. Sure. And I can appreciate that.    Now, previous messages from Public Trustees have noted that even if not a single dollar were paid to new beneficiaries once the trust funds are exhausted, there still wouldn't be enough money to pay benefits for those already receiving them. Is that still true?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. That is true. That is a rather interesting notion, though, of saying that every year the number of people who start to receive benefits is roughly 5 percent of the total number of people who receive benefits. So I am not sure that anybody would seriously consider saying let's continue to pay full, unaltered benefits to all the people who started receiving benefits a year or 2 or 3 years ago, but new people coming in will get nothing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. SMITH. But it helps us reflect kind of the obligations that are there. And I think it is very advisable for us, on both sides of the aisle, to acknowledge the realities that are out there.    I mean, I cannot suggest that there is a surplus, given all of the obligations long term. And believe me, we need to think longer term about especially this issue, given what has been promised over the past and hopefully will in the future.    Thank you, I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Thank you.    Mr. Buchanan, you are recognized.</t>
+  </si>
+  <si>
+    <t>412196</t>
+  </si>
+  <si>
+    <t>Buchanan</t>
+  </si>
+  <si>
+    <t>Vern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BUCHANAN. Thank you, Mr. Goss, for coming. We all appreciate it.    I am from Florida, Sarasota, and there are 217,000 people in my district out of 700,000 that count on Social Security.    But I want to go back to the gentleman's point from California about the surplus. I mean, really, as you mentioned, there is really no money there. It is an IOU from the Federal Government. Is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, to the extent that any Treasury bond or savings bond that any of us might hold is an IOU from the government, that would be true.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BUCHANAN. So, basically, what you have is that $2.7 trillion or whatever that number is, is Treasuries from the Federal Government. Is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. It is Treasuries, exactly. And it represents, of course, the excess funds that have been accumulated by Social Security by having taxes more than what we spent with interest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BUCHANAN. When you look at your ability to get repaid, my concern is, when I ran for Congress, I was concerned about the $130 billion in deficits when I came in 2007. I remember back then it was about $130 billion that year. We went from $8 trillion and change to almost maybe $8 to $9 trillion, in that range. Today, we are at $19 trillion. We have accumulated, in 10 years, $10 trillion in debt.    So I ask you, do you look at the viability, you know, when you are counting on the government in a sense for their ability to repay? I mean, you are counting on that $3 trillion to make sure you can get to 2034, but as they accumulate debt--and there is plenty of blame to go around. It is not a Democrat issue, it is both, I will put it that way right up front.    But when you look at the health of the lender, basically, or the borrower, I mean, how do you factor that in? Or do you factor that in, the fact that they are almost $20 trillion in debt? And if you had the normal cost of money today, the way it has been over the last 40 years, it would be 4 or 5 percent, you could have interest, $700, $800 billion on that debt if it got back up to where it has historically been.    So I guess I ask you that question. When you look at this, you look at your ability to get repaid the $3 trillion, you ought to look at the U.S. Government and their ability to pay. Are you confident that 10 years from now, if we keep going down this track, you are going to ever see your $3 trillion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Well, I would suggest that if we ever reach a point where the Federal Government as a whole is unable to repay the gradual amounts of annual shortfalls that Social Security is drawing from its trust funds, we will probably have much more severe problems than just the situation with Social Security given the level of total Federal debt that we have.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BUCHANAN. Let me, because we are all limited on time, let me just say, I was born in Detroit. A great city. I lived in the Detroit area, my wife and myself. It is the fourth-largest city in America. It was very viable. It went bankrupt. And you know what, all the firefighters, the police officers, a lot of my family members in the Detroit area, I have heard all the stories--I live in Florida now--but they took a haircut, all of them. And I never would have imagined for a lot of years that that would ever happen to Detroit. It is a great area, great city, but obviously, everybody got a haircut.    And when we are just kind of not paying attention to the debt and the other liabilities that are out there, we are kidding ourselves, frankly. And that is why the sooner the better that we work together on a bipartisan basis to deal with this.    The second thing, let me just ask you, is the cost of living. A lot of the seniors, I do a lot of town halls, they want to know. They didn't get a cost-of-living adjustment for the last year or two. What are your thoughts on that? And then, of course, next year, where do you see that going?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. The CPI that determined last year's cost-of-living adjustment, which turned out to be zero, we actually had the CPI going down by I think it was three- or four-tenths of a percent. In order to have a cost-of-living adjustment coming up December of this year, we have to make that up by the rules of the way the cost-of-living adjustments work and go above.    Our current projection, our estimation in the new Trustees Report is that we will have a two-tenths of 1 percent increase for the cost-of-living adjustment. It depends on lots of factors in the economy. We have all seen the price of gasoline going up some. So at this point we are expecting we should be on the order of two-tenths. Could it be more or less? It depends on what happens between now and the end of September.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BUCHANAN. So your thought, there might be something next go around?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Our current expectation and our projection is that we will have a positive cost-of-living adjustment next time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. BUCHANAN. Thank you. I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. Thank you.    Mr. Dold, you are recognized.</t>
+  </si>
+  <si>
+    <t>412420</t>
+  </si>
+  <si>
+    <t>Dold</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DOLD. Thank you, Mr. Chairman.    Mr. Goss, we certainly appreciate you coming in and testifying before us today.    I think the common theme that you are hearing from everybody is that we are looking to try to figure out in a bipartisan way how we can move forward. How do we make this solvent? And as you were talking to my colleague, Mr. Rice, for 75 years. So when you say, what do we want? We want something solvent for 75 years.    And as we look out there, you say, well, we are not really responsible for coming up with ideas. Frankly, you are the ones that are living it each and every day. You know the ideas that are going to work, the ideas that potentially aren't going to work.    So let me put you back on the hot seat for just a little bit. Out of the 100 proposals that you have seen out there, there have to be a couple that have risen to the top. And, again, Mr. Becerra is here representing the other side of the aisle, I am sure he is interested also in ways that we can try to make this solvent. Because the one thing that we do know is life expectancy when Social Security was enacted was significantly lower than it is today.    Do you know what the life expectancy was when Social Security was enacted, roughly?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Life expectancy at birth or at 65?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DOLD. Life expectancy when Social Security actually came into the fold.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. Life expectancy at 65 was considerably less than it is now, no question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DOLD. So we are living a lot longer lives for many different reasons. And ultimately what that means is it puts additional pressure on us, largely because, again, we have a labor force participation rate, which as Mr. Kelly pointed out to us, is the economic engine that is actually funding Social Security today.    My question to you, as we look at this--and back in the 10th District in Illinois we have about 105,000 people that are on Social Security, a little over 83,000 of those are over 65. And is there a way that we can be focusing, as opposed to an across-the-board increase, on ones that we can help, perhaps those that need it most, some of the lower-income earners? Have you seen some of the proposals that are intriguing out of the 100 that you have listed on the website that might be helpful?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. There is no question we have a lot of proposals in here that would operate for people at different lifetime earnings levels in very differential ways. We have one proposal that suggests that, for instance, in our benefit formula, which now has a weighting to give a higher rate of return, a higher replacement rate for low-income folks than high-income folks, to make that tilt stronger.    We have had proposals that would increase the now really ineffective special minimum benefit that we have for folks at the bottom end, because it was only CPI indexed, and so it has, in effect, disappeared in terms of effectiveness, to restore a minimum benefit. And these proposals can be done in such a way that they would have an overall savings by lowering the rate of return for the highest earners and increasing to some degree the rate of return for the low earners.    So we have lots and lots of different approaches.    I would also mention there is not only the payroll tax, but, in fact, a former, although fairly brief Chairman of this Committee and Chairman of the House Budget Committee had at a point in some of the provisions that we scored proposed having employer-sponsored group health insurance premiums subject to the tax that contributes to the Social Security trust fund.    So we have lots of different potential ways we have indicated here for generating more revenue, lots of different ways for altering benefits, some of which could be across-the-board reductions, some would reduce higher earners more than lower earners. So we have a great variety to the point of what I could speak is that there are some provisions that we have probably seen more often than others. And ones to, for instance, as mentioned here, increase our taxable maximum from $118,500 to something a little bit more than double, to restore it back to where we were in 1983 and 1984 where we did have 90 percent of all wage income falling below our taxable maximum. The changing distribution of earnings in our economy has really altered that for about 83 percent. That would make a contribution.    Many people have looked at the retirement age that we have increased, from 65 up to 67. By 2022, we will be at 67 for the full retirement age at which you can get the full and unreduced benefit. Some have suggested indexing it after we get to that point.    One commission, if I may just mention very briefly, I believe it was the Simpson-Bowles commission, actually suggested indexing the retirement age but doing it in such a way that long-career low earners would not be subject to the full and possibly not any of the increase in the retirement age.    So there is an incredible variety of possibilities here that we hope we can work with you all in considering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DOLD. Mr. Goss, you mentioned before in terms of raising that age from 67 in 2022. What does raising the age by an additional year do to expanding it from what it is now, insolvency at 2034?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GOSS. For 2034, it would really do very little, because we would be only talking about affecting people who attain age 62 after the year 2022. To affect them by having some lower level of benefit or asking them to wait another couple of months or a year to start receiving their benefits, the cumulative effect through 2034 would be very small, which really speaks to the notion that we really need to have a whole market basket of different possible changes put together for the next conference on reform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DOLD. Mr. Goss, we certainly look forward to working with you in a bipartisan way, because we know that the longer we wait, the fewer options that we have. And we certainly need to talk about solvency, because we have too many people that are relying on Social Security for a vast majority of their income in retirement.    Thank you. I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman JOHNSON. I want to thank all the Members who are here, including my Democrat colleague.    And, you know, Social Security faces serious challenges and needs serious solutions, not empty words and plans that just don't add up. I look forward to working with all my colleagues, and with you too, Mr. Goss, to find ways to make sure Social Security is a program that our children and grandchildren can count on, just as seniors and individuals with disabilities do today.    I want to thank you, again, for our witness, for his testimony, and also thank all the Members for being here today. God bless you all.    With that, this Subcommittee stands adjourned.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +895,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,33 +920,4101 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s"/>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" t="s">
+        <v>63</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>54</v>
+      </c>
+      <c r="H62" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" t="s">
+        <v>54</v>
+      </c>
+      <c r="H64" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" t="s">
+        <v>63</v>
+      </c>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" t="s">
+        <v>62</v>
+      </c>
+      <c r="I66" t="s">
+        <v>63</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" t="s">
+        <v>54</v>
+      </c>
+      <c r="H68" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I70" t="s">
+        <v>63</v>
+      </c>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" t="s">
+        <v>63</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74" t="s">
+        <v>62</v>
+      </c>
+      <c r="I74" t="s">
+        <v>63</v>
+      </c>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" t="s">
+        <v>62</v>
+      </c>
+      <c r="I76" t="s">
+        <v>63</v>
+      </c>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" t="s">
+        <v>62</v>
+      </c>
+      <c r="I78" t="s">
+        <v>63</v>
+      </c>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" t="s">
+        <v>54</v>
+      </c>
+      <c r="H80" t="s">
+        <v>62</v>
+      </c>
+      <c r="I80" t="s">
+        <v>63</v>
+      </c>
+      <c r="J80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" t="s">
+        <v>62</v>
+      </c>
+      <c r="I82" t="s">
+        <v>63</v>
+      </c>
+      <c r="J82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" t="s">
+        <v>54</v>
+      </c>
+      <c r="H84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I84" t="s">
+        <v>63</v>
+      </c>
+      <c r="J84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>54</v>
+      </c>
+      <c r="H86" t="s">
+        <v>113</v>
+      </c>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>112</v>
+      </c>
+      <c r="G88" t="s">
+        <v>54</v>
+      </c>
+      <c r="H88" t="s">
+        <v>113</v>
+      </c>
+      <c r="I88" t="s">
+        <v>114</v>
+      </c>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>112</v>
+      </c>
+      <c r="G90" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90" t="s">
+        <v>113</v>
+      </c>
+      <c r="I90" t="s">
+        <v>114</v>
+      </c>
+      <c r="J90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" t="s">
+        <v>113</v>
+      </c>
+      <c r="I92" t="s">
+        <v>114</v>
+      </c>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>112</v>
+      </c>
+      <c r="G93" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93" t="s">
+        <v>113</v>
+      </c>
+      <c r="I93" t="s">
+        <v>114</v>
+      </c>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>112</v>
+      </c>
+      <c r="G95" t="s">
+        <v>54</v>
+      </c>
+      <c r="H95" t="s">
+        <v>113</v>
+      </c>
+      <c r="I95" t="s">
+        <v>114</v>
+      </c>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>112</v>
+      </c>
+      <c r="G97" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" t="s">
+        <v>113</v>
+      </c>
+      <c r="I97" t="s">
+        <v>114</v>
+      </c>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>112</v>
+      </c>
+      <c r="G99" t="s">
+        <v>54</v>
+      </c>
+      <c r="H99" t="s">
+        <v>113</v>
+      </c>
+      <c r="I99" t="s">
+        <v>114</v>
+      </c>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>130</v>
+      </c>
+      <c r="G101" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101" t="s">
+        <v>131</v>
+      </c>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>130</v>
+      </c>
+      <c r="G103" t="s">
+        <v>54</v>
+      </c>
+      <c r="H103" t="s">
+        <v>131</v>
+      </c>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
+        <v>130</v>
+      </c>
+      <c r="G105" t="s">
+        <v>54</v>
+      </c>
+      <c r="H105" t="s">
+        <v>131</v>
+      </c>
+      <c r="I105" t="s">
+        <v>132</v>
+      </c>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>130</v>
+      </c>
+      <c r="G107" t="s">
+        <v>54</v>
+      </c>
+      <c r="H107" t="s">
+        <v>131</v>
+      </c>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>130</v>
+      </c>
+      <c r="G109" t="s">
+        <v>54</v>
+      </c>
+      <c r="H109" t="s">
+        <v>131</v>
+      </c>
+      <c r="I109" t="s">
+        <v>132</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" t="s">
+        <v>54</v>
+      </c>
+      <c r="H111" t="s">
+        <v>131</v>
+      </c>
+      <c r="I111" t="s">
+        <v>132</v>
+      </c>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>25</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>130</v>
+      </c>
+      <c r="G113" t="s">
+        <v>54</v>
+      </c>
+      <c r="H113" t="s">
+        <v>131</v>
+      </c>
+      <c r="I113" t="s">
+        <v>132</v>
+      </c>
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" t="s">
+        <v>147</v>
+      </c>
+      <c r="G115" t="s">
+        <v>54</v>
+      </c>
+      <c r="H115" t="s">
+        <v>148</v>
+      </c>
+      <c r="I115" t="s">
+        <v>149</v>
+      </c>
+      <c r="J115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s">
+        <v>147</v>
+      </c>
+      <c r="G117" t="s">
+        <v>54</v>
+      </c>
+      <c r="H117" t="s">
+        <v>148</v>
+      </c>
+      <c r="I117" t="s">
+        <v>149</v>
+      </c>
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
+        <v>147</v>
+      </c>
+      <c r="G119" t="s">
+        <v>54</v>
+      </c>
+      <c r="H119" t="s">
+        <v>148</v>
+      </c>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+      <c r="J119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>147</v>
+      </c>
+      <c r="G121" t="s">
+        <v>54</v>
+      </c>
+      <c r="H121" t="s">
+        <v>148</v>
+      </c>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+      <c r="J121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>25</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>147</v>
+      </c>
+      <c r="G123" t="s">
+        <v>54</v>
+      </c>
+      <c r="H123" t="s">
+        <v>148</v>
+      </c>
+      <c r="I123" t="s">
+        <v>149</v>
+      </c>
+      <c r="J123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>25</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>147</v>
+      </c>
+      <c r="G125" t="s">
+        <v>54</v>
+      </c>
+      <c r="H125" t="s">
+        <v>148</v>
+      </c>
+      <c r="I125" t="s">
+        <v>149</v>
+      </c>
+      <c r="J125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>162</v>
+      </c>
+      <c r="G127" t="s">
+        <v>54</v>
+      </c>
+      <c r="H127" t="s">
+        <v>163</v>
+      </c>
+      <c r="I127" t="s">
+        <v>164</v>
+      </c>
+      <c r="J127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>25</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>162</v>
+      </c>
+      <c r="G129" t="s">
+        <v>54</v>
+      </c>
+      <c r="H129" t="s">
+        <v>163</v>
+      </c>
+      <c r="I129" t="s">
+        <v>164</v>
+      </c>
+      <c r="J129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>25</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>162</v>
+      </c>
+      <c r="G131" t="s">
+        <v>54</v>
+      </c>
+      <c r="H131" t="s">
+        <v>163</v>
+      </c>
+      <c r="I131" t="s">
+        <v>164</v>
+      </c>
+      <c r="J131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>25</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>162</v>
+      </c>
+      <c r="G133" t="s">
+        <v>54</v>
+      </c>
+      <c r="H133" t="s">
+        <v>163</v>
+      </c>
+      <c r="I133" t="s">
+        <v>164</v>
+      </c>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>25</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s">
+        <v>162</v>
+      </c>
+      <c r="G135" t="s">
+        <v>54</v>
+      </c>
+      <c r="H135" t="s">
+        <v>163</v>
+      </c>
+      <c r="I135" t="s">
+        <v>164</v>
+      </c>
+      <c r="J135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
